--- a/medicine/Psychotrope/Victor_Patiño-Fomeque/Victor_Patiño-Fomeque.xlsx
+++ b/medicine/Psychotrope/Victor_Patiño-Fomeque/Victor_Patiño-Fomeque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Victor_Pati%C3%B1o-Fomeque</t>
+          <t>Victor_Patiño-Fomeque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Julio Patiño-Fomeque alias El Quimico (le chimiste) est un narcotrafiquant colombien du cartel de Cali et du cartel Norte del Valle, actuellement[Quand ?] en prison dans une prison des États-Unis. Patiño-Fomeque était chargé d'assurer la sécurité et l'efficacité des opérations maritimes des expéditions de drogue du cartel Cali. 
 Il s'est rendu aux autorités colombiennes le 24 juin 1995 et a été condamné à 12 ans de prison.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Victor_Pati%C3%B1o-Fomeque</t>
+          <t>Victor_Patiño-Fomeque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patiño était un policier colombien et a été recruté plus tard par Gilberto et Miguel Rodriguez Orejuela, les dirigeants du cartel de Cali, pour être leur garde du corps.
 Le 7 octobre 2005, Patiño et sa mère ont témoigné aux États-Unis et accusé un éminent politicien colombien nommé Vicente Blel d'être l'un de ses principaux candidats. Selon Patiño, Blel l'a rencontré sous un faux nom, Julio Gómez, pour déguiser sa relation avec le cartel Cali et a également déclaré qu'il était un homme d'affaires de Cali prêt à collaborer à la campagne présidentielle d'Ernesto Samper. Patiño a également été personnellement présenté à Horacio Serpa, le chef du débat de Samper à l'époque. Blel a répondu qu'il avait effectivement rencontré Patiño, pensant qu'il s'agissait en fait de l'homme d'affaires Gomez, et qu'il avait collaboré avec lui à plusieurs reprises, l'aidant même à mettre des biens sous son nom et avec de nombreuses autres faveurs. Patiño et d'autres membres du cartel de Cali ont utilisé la corruption comme moyen de protéger leur commerce de drogue.
